--- a/Kashi.xlsx
+++ b/Kashi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\html\GitHub\Panchangam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B026975-3E8E-476A-B77E-2A98D283CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64B53D6-FE37-40D9-815B-FEE93BBDA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{5C064A63-52F5-4017-80F6-9D7C5DD19D69}"/>
   </bookViews>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DE4D55-9396-4C2F-8EF8-CC07946E172C}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A63" s="5">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>475</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A64" s="5">
-        <v>45659</v>
+        <v>46024</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>475</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A65" s="5">
-        <v>45660</v>
+        <v>46025</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>475</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A66" s="5">
-        <v>45661</v>
+        <v>46026</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>476</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A67" s="5">
-        <v>45662</v>
+        <v>46027</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>476</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A68" s="5">
-        <v>45663</v>
+        <v>46028</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>476</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A69" s="5">
-        <v>45664</v>
+        <v>46029</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>476</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A70" s="5">
-        <v>45665</v>
+        <v>46030</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>476</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A71" s="5">
-        <v>45666</v>
+        <v>46031</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>476</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A72" s="5">
-        <v>45667</v>
+        <v>46032</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>476</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A73" s="5">
-        <v>45668</v>
+        <v>46033</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>476</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A74" s="5">
-        <v>45669</v>
+        <v>46034</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>476</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A75" s="5">
-        <v>45670</v>
+        <v>46035</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>476</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A76" s="5">
-        <v>45671</v>
+        <v>46036</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>476</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A77" s="5">
-        <v>45672</v>
+        <v>46037</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>476</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A78" s="5">
-        <v>45673</v>
+        <v>46038</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>476</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A79" s="5">
-        <v>45674</v>
+        <v>46039</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>476</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A80" s="5">
-        <v>45675</v>
+        <v>46040</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>476</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A81" s="5">
-        <v>45676</v>
+        <v>46041</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>476</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A82" s="5">
-        <v>45677</v>
+        <v>46042</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>476</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A83" s="5">
-        <v>45678</v>
+        <v>46043</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>476</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A84" s="5">
-        <v>45679</v>
+        <v>46044</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>476</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A85" s="5">
-        <v>45680</v>
+        <v>46045</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>476</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A86" s="5">
-        <v>45681</v>
+        <v>46046</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>476</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A87" s="5">
-        <v>45682</v>
+        <v>46047</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>476</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A88" s="5">
-        <v>45683</v>
+        <v>46048</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>476</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A89" s="5">
-        <v>45684</v>
+        <v>46049</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>476</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A90" s="5">
-        <v>45685</v>
+        <v>46050</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>476</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A91" s="5">
-        <v>45686</v>
+        <v>46051</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>476</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A92" s="5">
-        <v>45687</v>
+        <v>46052</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>476</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A93" s="5">
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>476</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A94" s="5">
-        <v>45689</v>
+        <v>46054</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>476</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A95" s="5">
-        <v>45690</v>
+        <v>46055</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>477</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A96" s="5">
-        <v>45691</v>
+        <v>46056</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>477</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A97" s="5">
-        <v>45692</v>
+        <v>46057</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>477</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A98" s="5">
-        <v>45693</v>
+        <v>46058</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>477</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A99" s="5">
-        <v>45694</v>
+        <v>46059</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>477</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A100" s="5">
-        <v>45695</v>
+        <v>46060</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>477</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A101" s="5">
-        <v>45696</v>
+        <v>46061</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>477</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A102" s="5">
-        <v>45697</v>
+        <v>46062</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>477</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A103" s="5">
-        <v>45698</v>
+        <v>46063</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>477</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A104" s="5">
-        <v>45699</v>
+        <v>46064</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>477</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A105" s="5">
-        <v>45700</v>
+        <v>46065</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>477</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A106" s="5">
-        <v>45701</v>
+        <v>46066</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>477</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A107" s="5">
-        <v>45702</v>
+        <v>46067</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>477</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A108" s="5">
-        <v>45703</v>
+        <v>46068</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>477</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A109" s="5">
-        <v>45704</v>
+        <v>46069</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>477</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A110" s="5">
-        <v>45705</v>
+        <v>46070</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>477</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A111" s="5">
-        <v>45706</v>
+        <v>46071</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>477</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A112" s="5">
-        <v>45707</v>
+        <v>46072</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>477</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A113" s="5">
-        <v>45708</v>
+        <v>46073</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>477</v>
@@ -7925,7 +7925,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A114" s="5">
-        <v>45709</v>
+        <v>46074</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>477</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A115" s="5">
-        <v>45710</v>
+        <v>46075</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>477</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A116" s="5">
-        <v>45711</v>
+        <v>46076</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>477</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A117" s="5">
-        <v>45712</v>
+        <v>46077</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>477</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A118" s="5">
-        <v>45713</v>
+        <v>46078</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>477</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A119" s="5">
-        <v>45714</v>
+        <v>46079</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>477</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A120" s="5">
-        <v>45715</v>
+        <v>46080</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>477</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A121" s="5">
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>477</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A122" s="5">
-        <v>45717</v>
+        <v>46082</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>477</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A123" s="5">
-        <v>45718</v>
+        <v>46083</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>477</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A124" s="5">
-        <v>45719</v>
+        <v>46084</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>477</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A125" s="5">
-        <v>45720</v>
+        <v>46085</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>478</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A126" s="5">
-        <v>45721</v>
+        <v>46086</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>478</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A127" s="5">
-        <v>45722</v>
+        <v>46087</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>478</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A128" s="5">
-        <v>45723</v>
+        <v>46088</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>478</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A129" s="5">
-        <v>45724</v>
+        <v>46089</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>478</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A130" s="5">
-        <v>45725</v>
+        <v>46090</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>478</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A131" s="5">
-        <v>45726</v>
+        <v>46091</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>478</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A132" s="5">
-        <v>45727</v>
+        <v>46092</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>478</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A133" s="5">
-        <v>45728</v>
+        <v>46093</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>478</v>
@@ -8985,7 +8985,7 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A134" s="5">
-        <v>45729</v>
+        <v>46094</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>478</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A135" s="5">
-        <v>45730</v>
+        <v>46095</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>478</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A136" s="5">
-        <v>45731</v>
+        <v>46096</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>478</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A137" s="5">
-        <v>45732</v>
+        <v>46097</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>478</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A138" s="5">
-        <v>45733</v>
+        <v>46098</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>478</v>
@@ -9250,7 +9250,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A139" s="5">
-        <v>45734</v>
+        <v>46099</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>478</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A140" s="5">
-        <v>45735</v>
+        <v>46100</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>478</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A141" s="5">
-        <v>45736</v>
+        <v>46101</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>478</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A142" s="5">
-        <v>45737</v>
+        <v>46102</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>478</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A143" s="5">
-        <v>45738</v>
+        <v>46103</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>478</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A144" s="5">
-        <v>45739</v>
+        <v>46104</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>478</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A145" s="5">
-        <v>45740</v>
+        <v>46105</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>478</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A146" s="5">
-        <v>45741</v>
+        <v>46106</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>478</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A147" s="5">
-        <v>45742</v>
+        <v>46107</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>478</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A148" s="5">
-        <v>45743</v>
+        <v>46108</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>478</v>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A149" s="5">
-        <v>45744</v>
+        <v>46109</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>478</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A150" s="5">
-        <v>45745</v>
+        <v>46110</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>478</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A151" s="5">
-        <v>45746</v>
+        <v>46111</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>478</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A152" s="5">
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>478</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A153" s="5">
-        <v>45748</v>
+        <v>46113</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>478</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A154" s="5">
-        <v>45749</v>
+        <v>46114</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>478</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A155" s="5">
-        <v>45750</v>
+        <v>46115</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>479</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A156" s="5">
-        <v>45751</v>
+        <v>46116</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>479</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A157" s="5">
-        <v>45752</v>
+        <v>46117</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>479</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A158" s="5">
-        <v>45753</v>
+        <v>46118</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>479</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A159" s="5">
-        <v>45754</v>
+        <v>46119</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>479</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A160" s="5">
-        <v>45755</v>
+        <v>46120</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>479</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A161" s="5">
-        <v>45756</v>
+        <v>46121</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>479</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A162" s="5">
-        <v>45757</v>
+        <v>46122</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>479</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A163" s="5">
-        <v>45758</v>
+        <v>46123</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>479</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A164" s="5">
-        <v>45759</v>
+        <v>46124</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>479</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A165" s="5">
-        <v>45760</v>
+        <v>46125</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>479</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A166" s="5">
-        <v>45761</v>
+        <v>46126</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>479</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A167" s="5">
-        <v>45762</v>
+        <v>46127</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>479</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A168" s="5">
-        <v>45763</v>
+        <v>46128</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>479</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A169" s="5">
-        <v>45764</v>
+        <v>46129</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>479</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A170" s="5">
-        <v>45765</v>
+        <v>46130</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>479</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A171" s="5">
-        <v>45766</v>
+        <v>46131</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>479</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A172" s="5">
-        <v>45767</v>
+        <v>46132</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>479</v>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A173" s="5">
-        <v>45768</v>
+        <v>46133</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>479</v>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A174" s="5">
-        <v>45769</v>
+        <v>46134</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>479</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A175" s="5">
-        <v>45770</v>
+        <v>46135</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>479</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A176" s="5">
-        <v>45771</v>
+        <v>46136</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>479</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A177" s="5">
-        <v>45772</v>
+        <v>46137</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>479</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A178" s="5">
-        <v>45773</v>
+        <v>46138</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>479</v>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A179" s="5">
-        <v>45774</v>
+        <v>46139</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>479</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A180" s="5">
-        <v>45775</v>
+        <v>46140</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>479</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A181" s="5">
-        <v>45776</v>
+        <v>46141</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>479</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A182" s="5">
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>479</v>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A183" s="5">
-        <v>45778</v>
+        <v>46143</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>479</v>
@@ -11635,7 +11635,7 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A184" s="5">
-        <v>45779</v>
+        <v>46144</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>480</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A185" s="5">
-        <v>45780</v>
+        <v>46145</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>480</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A186" s="5">
-        <v>45781</v>
+        <v>46146</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>480</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A187" s="5">
-        <v>45782</v>
+        <v>46147</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>480</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A188" s="5">
-        <v>45783</v>
+        <v>46148</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>480</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A189" s="5">
-        <v>45784</v>
+        <v>46149</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>480</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A190" s="5">
-        <v>45785</v>
+        <v>46150</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>480</v>
@@ -12006,7 +12006,7 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A191" s="5">
-        <v>45786</v>
+        <v>46151</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>480</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A192" s="5">
-        <v>45787</v>
+        <v>46152</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>480</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A193" s="5">
-        <v>45788</v>
+        <v>46153</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>480</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A194" s="5">
-        <v>45789</v>
+        <v>46154</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>480</v>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A195" s="5">
-        <v>45790</v>
+        <v>46155</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>480</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A196" s="5">
-        <v>45791</v>
+        <v>46156</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>480</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A197" s="5">
-        <v>45792</v>
+        <v>46157</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>480</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A198" s="5">
-        <v>45793</v>
+        <v>46158</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>480</v>
@@ -12430,7 +12430,7 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A199" s="5">
-        <v>45794</v>
+        <v>46159</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>480</v>
@@ -12483,7 +12483,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A200" s="5">
-        <v>45795</v>
+        <v>46160</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>480</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A201" s="5">
-        <v>45796</v>
+        <v>46161</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>480</v>
@@ -12601,5 +12601,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>